--- a/branches/master/StructureDefinition-BEMedicationLine.xlsx
+++ b/branches/master/StructureDefinition-BEMedicationLine.xlsx
@@ -57,19 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:19:24+00:00</t>
+    <t>2024-04-07T13:15:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>eHealth Platform (https://www.ehealth.fgov.be/standards/fhir, message-structure@ehealth.fgov.be)</t>
+    <t>HL7 Belgium (https://www.hl7belgium.org, hl7belgium@hl7belgium.org)</t>
   </si>
   <si>
     <t>Message Structure eHealth (message-structure@ehealth.fgov.be(WORK))</t>

--- a/branches/master/StructureDefinition-BEMedicationLine.xlsx
+++ b/branches/master/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T13:15:37+00:00</t>
+    <t>2024-04-10T07:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BEMedicationLine.xlsx
+++ b/branches/master/StructureDefinition-BEMedicationLine.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="524">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T07:41:38+00:00</t>
+    <t>2024-05-06T21:25:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -501,22 +501,6 @@
     <t>Dispense Request Needed - category.</t>
   </si>
   <si>
-    <t>MedicationStatement.extension:visibility-flag</t>
-  </si>
-  <si>
-    <t>visibility-flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/medication/StructureDefinition/VisibilityFlag}
-</t>
-  </si>
-  <si>
-    <t>Coded preference or assertion about the visibility of the medication line</t>
-  </si>
-  <si>
-    <t>Visibility Flag.</t>
-  </si>
-  <si>
     <t>MedicationStatement.extension:artifact-version</t>
   </si>
   <si>
@@ -530,7 +514,7 @@
     <t>The business version of the medication line - this version changes when the content update is considered clinically relevant</t>
   </si>
   <si>
-    <t>The identifier that is used to identify this version of the {{title}} when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the {{title}} author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
+    <t>The identifier that is used to identify this version of the artifact when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the artifact author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
   </si>
   <si>
     <t>MedicationStatement.extension:artifact-date</t>
@@ -546,10 +530,10 @@
     <t>The business-relevant recorded date - the date the medication line was created or changed</t>
   </si>
   <si>
-    <t>The date  (and optionally time) when the {{title}} was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the {{title}} changes.</t>
-  </si>
-  <si>
-    <t>The date is often not tracked until the resource is published, but may be present on draft content. Note that this is not the same as the resource last-modified-date, since the resource may be a secondary representation of the {{title}}. Additional specific dates may be added as extensions or be found by consulting Provenances associated with past versions of the resource.</t>
+    <t>The date  (and optionally time) when the artifact was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the artifact changes.</t>
+  </si>
+  <si>
+    <t>The date is often not tracked until the resource is published, but may be present on draft content. Note that this is not the same as the resource last-modified-date, since the resource may be a secondary representation of the artifact. Additional specific dates may be added as extensions or be found by consulting Provenances associated with past versions of the resource.</t>
   </si>
   <si>
     <t>MedicationStatement.extension:adherence</t>
@@ -1996,7 +1980,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3317,7 +3301,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>88</v>
@@ -3398,7 +3382,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>140</v>
@@ -3431,7 +3415,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>88</v>
@@ -3454,7 +3438,9 @@
       <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3532,20 +3518,20 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>88</v>
@@ -3560,16 +3546,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3628,7 +3614,7 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>140</v>
@@ -3637,7 +3623,7 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3648,35 +3634,33 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s" s="2">
         <v>169</v>
       </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I15" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>171</v>
@@ -3687,7 +3671,9 @@
       <c r="N15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3735,7 +3721,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3744,7 +3730,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>140</v>
@@ -3764,46 +3750,44 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J16" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3839,19 +3823,19 @@
         <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3863,16 +3847,16 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3880,21 +3864,23 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>89</v>
@@ -3906,16 +3892,16 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3953,19 +3939,19 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3980,13 +3966,13 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3994,14 +3980,12 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>77</v>
       </c>
@@ -4013,16 +3997,16 @@
         <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>193</v>
@@ -4030,9 +4014,7 @@
       <c r="M18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N18" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -4081,28 +4063,28 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4110,21 +4092,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -4136,15 +4118,17 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -4181,37 +4165,37 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4222,44 +4206,46 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4283,63 +4269,63 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4356,25 +4342,25 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4399,13 +4385,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -4423,7 +4409,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4441,21 +4427,21 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>131</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4463,7 +4449,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -4478,19 +4464,19 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4500,10 +4486,10 @@
         <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>77</v>
@@ -4515,13 +4501,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4539,7 +4525,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4557,21 +4543,21 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4579,13 +4565,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>77</v>
@@ -4594,20 +4580,18 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4616,10 +4600,10 @@
         <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>77</v>
@@ -4655,7 +4639,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4673,21 +4657,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4701,7 +4685,7 @@
         <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>77</v>
@@ -4710,17 +4694,15 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4733,7 +4715,7 @@
         <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>77</v>
@@ -4769,7 +4751,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4787,21 +4769,21 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4824,15 +4806,17 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4881,7 +4865,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4899,21 +4883,21 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4924,7 +4908,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4936,18 +4920,18 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4995,13 +4979,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -5010,24 +4994,24 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5050,17 +5034,17 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -5109,7 +5093,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5124,10 +5108,10 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5138,10 +5122,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5149,33 +5133,33 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>276</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
         <v>279</v>
       </c>
+      <c r="N28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5199,13 +5183,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5223,13 +5207,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -5238,13 +5222,13 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5252,10 +5236,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5263,31 +5247,31 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5313,37 +5297,37 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -5352,13 +5336,13 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5366,10 +5350,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5380,7 +5364,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>89</v>
@@ -5389,20 +5373,18 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5427,37 +5409,37 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -5466,13 +5448,13 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5480,10 +5462,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5491,7 +5473,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
@@ -5506,15 +5488,17 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5539,13 +5523,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>112</v>
+        <v>290</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5563,10 +5547,10 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>88</v>
@@ -5578,13 +5562,13 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5592,10 +5576,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5618,17 +5602,15 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5653,31 +5635,31 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>88</v>
@@ -5692,24 +5674,24 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5717,13 +5699,13 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>77</v>
@@ -5732,13 +5714,13 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5789,10 +5771,10 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>88</v>
@@ -5804,24 +5786,24 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5829,13 +5811,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>77</v>
@@ -5844,15 +5826,17 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5901,7 +5885,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5916,13 +5900,13 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5930,10 +5914,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5941,7 +5925,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>88</v>
@@ -5956,17 +5940,15 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6015,7 +5997,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6030,13 +6012,13 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6044,10 +6026,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6055,7 +6037,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>88</v>
@@ -6067,16 +6049,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6127,7 +6109,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6145,10 +6127,10 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6156,10 +6138,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6167,13 +6149,13 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>77</v>
@@ -6182,15 +6164,17 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6239,13 +6223,13 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
@@ -6257,10 +6241,10 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6268,10 +6252,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6285,7 +6269,7 @@
         <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>77</v>
@@ -6294,7 +6278,7 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>352</v>
+        <v>216</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>353</v>
@@ -6329,13 +6313,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6353,7 +6337,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6368,13 +6352,13 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6382,10 +6366,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6408,16 +6392,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>221</v>
+        <v>362</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6443,31 +6427,31 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6482,13 +6466,13 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6496,10 +6480,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6522,17 +6506,15 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6581,7 +6563,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6596,13 +6578,13 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6610,10 +6592,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6636,15 +6618,17 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6693,7 +6677,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6708,10 +6692,10 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6722,10 +6706,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6736,10 +6720,10 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>77</v>
@@ -6748,17 +6732,15 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>380</v>
+        <v>192</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>193</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6807,25 +6789,25 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>379</v>
+        <v>195</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>384</v>
+        <v>196</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6836,21 +6818,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6862,15 +6844,17 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6907,37 +6891,37 @@
         <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6948,24 +6932,26 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D44" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>77</v>
@@ -6974,17 +6960,15 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>384</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>204</v>
+        <v>385</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -7021,19 +7005,19 @@
         <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7051,7 +7035,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7065,7 +7049,7 @@
         <v>387</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>388</v>
@@ -7096,7 +7080,7 @@
         <v>390</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>391</v>
+        <v>151</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7147,7 +7131,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7176,44 +7160,46 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I46" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7261,7 +7247,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>207</v>
+        <v>395</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7279,7 +7265,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7297,26 +7283,26 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>398</v>
@@ -7324,11 +7310,9 @@
       <c r="M47" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N47" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>179</v>
+        <v>400</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7377,39 +7361,39 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>131</v>
+        <v>402</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7432,17 +7416,17 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>402</v>
+        <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7491,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7509,21 +7493,21 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7534,7 +7518,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7546,17 +7530,19 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7581,13 +7567,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7605,13 +7591,13 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
@@ -7623,21 +7609,21 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7648,7 +7634,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7660,20 +7646,16 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7697,13 +7679,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>421</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7727,7 +7709,7 @@
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7739,21 +7721,21 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7776,7 +7758,7 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>197</v>
+        <v>424</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>425</v>
@@ -7784,8 +7766,12 @@
       <c r="M51" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7833,7 +7819,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7851,21 +7837,21 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>407</v>
+        <v>332</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7888,20 +7874,18 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7925,13 +7909,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7949,7 +7933,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7967,21 +7951,21 @@
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>337</v>
+        <v>438</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8004,18 +7988,20 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>436</v>
+        <v>216</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8039,13 +8025,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -8063,7 +8049,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8081,21 +8067,21 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8118,19 +8104,17 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8155,13 +8139,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8179,7 +8163,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8197,21 +8181,21 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8234,17 +8218,19 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8269,13 +8255,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8293,7 +8279,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8311,21 +8297,21 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8336,7 +8322,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8348,20 +8334,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>221</v>
+        <v>470</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8385,13 +8367,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>470</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8409,13 +8391,13 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
@@ -8427,21 +8409,21 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>472</v>
+        <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8452,7 +8434,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8461,16 +8443,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>475</v>
+        <v>192</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>476</v>
+        <v>193</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>477</v>
+        <v>194</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8521,50 +8503,50 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>478</v>
+        <v>195</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>479</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8576,15 +8558,17 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8621,37 +8605,37 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8662,21 +8646,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8685,21 +8669,21 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>204</v>
+        <v>478</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8723,63 +8707,63 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>481</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>77</v>
+        <v>482</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>207</v>
+        <v>483</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8802,17 +8786,19 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>221</v>
+        <v>486</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="O60" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8837,13 +8823,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>486</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>487</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8861,7 +8847,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8879,21 +8865,21 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>77</v>
+        <v>467</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8916,19 +8902,19 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8977,7 +8963,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8995,21 +8981,21 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9032,19 +9018,19 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -9093,7 +9079,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9111,21 +9097,21 @@
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9148,19 +9134,19 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -9209,7 +9195,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9227,21 +9213,21 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>515</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9264,19 +9250,17 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9325,7 +9309,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9343,131 +9327,17 @@
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN65" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN65">
+  <autoFilter ref="A1:AN64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9477,7 +9347,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
